--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E8FA6E-88D7-4182-B948-D22B7CF73450}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
     <sheet name="IND_MELC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -302,7 +299,7 @@
     <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 9 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normale_B2020" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Per cent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Percent 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Percent 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -539,46 +536,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Energybalance history"/>
-      <sheetName val="Enrgy growth"/>
-      <sheetName val="TechnologydataTech"/>
-      <sheetName val="EBF TJ"/>
-      <sheetName val="EBF"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="PRI_Sector_Fuels"/>
-      <sheetName val="DemTechs_INDF"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="10">
-          <cell r="M10">
-            <v>0.20222228165192857</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,7 +909,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +988,6 @@
         <v>0.26498832137448636</v>
       </c>
       <c r="K4" s="11">
-        <f>[1]Demands!$M$10</f>
         <v>0.20222228165192857</v>
       </c>
     </row>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E8FA6E-88D7-4182-B948-D22B7CF73450}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
@@ -538,6 +538,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -827,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
